--- a/Project Plan and Umbrella Activities/Gnatt Chart/Agile Gantt Chart.xlsx
+++ b/Project Plan and Umbrella Activities/Gnatt Chart/Agile Gantt Chart.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B20A9FD-5371-473F-8C26-90D6A7F6B833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ECAE14E-210C-40E7-9078-00EA4738FFFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="415" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dark" sheetId="16" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="77">
   <si>
     <t>PROJECT TITLE</t>
   </si>
@@ -912,7 +912,7 @@
     <cellStyle name="Title" xfId="5" builtinId="15" customBuiltin="1"/>
     <cellStyle name="zHiddenText" xfId="3" xr:uid="{26E66EE6-E33F-4D77-BAE4-0FB4F5BBF673}"/>
   </cellStyles>
-  <dxfs count="41">
+  <dxfs count="36">
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1079,115 +1079,6 @@
         <right/>
         <top/>
         <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="2" tint="-9.9948118533890809E-2"/>
-        </left>
-        <right style="thin">
-          <color theme="2" tint="-9.9948118533890809E-2"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="9" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="4"/>
-        </left>
-        <right style="thin">
-          <color theme="4"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="-0.24994659260841701"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="7" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="7" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="6"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color theme="6"/>
-        </left>
-        <right style="thin">
-          <color theme="6"/>
-        </right>
-        <top style="thin">
-          <color theme="0"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0"/>
-        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -1497,21 +1388,21 @@
   </dxfs>
   <tableStyles count="2" defaultTableStyle="Gantt Table Style" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Gantt Table Style" pivot="0" count="4" xr9:uid="{4904D139-63E4-4221-B7C9-C6C5B7A50FAF}">
-      <tableStyleElement type="wholeTable" dxfId="40"/>
-      <tableStyleElement type="headerRow" dxfId="39"/>
-      <tableStyleElement type="firstRowStripe" dxfId="38"/>
-      <tableStyleElement type="secondRowStripe" dxfId="37"/>
+      <tableStyleElement type="wholeTable" dxfId="35"/>
+      <tableStyleElement type="headerRow" dxfId="34"/>
+      <tableStyleElement type="firstRowStripe" dxfId="33"/>
+      <tableStyleElement type="secondRowStripe" dxfId="32"/>
     </tableStyle>
     <tableStyle name="ToDoList" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="36"/>
-      <tableStyleElement type="headerRow" dxfId="35"/>
-      <tableStyleElement type="totalRow" dxfId="34"/>
-      <tableStyleElement type="firstColumn" dxfId="33"/>
-      <tableStyleElement type="lastColumn" dxfId="32"/>
-      <tableStyleElement type="firstRowStripe" dxfId="31"/>
-      <tableStyleElement type="secondRowStripe" dxfId="30"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="29"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="28"/>
+      <tableStyleElement type="wholeTable" dxfId="31"/>
+      <tableStyleElement type="headerRow" dxfId="30"/>
+      <tableStyleElement type="totalRow" dxfId="29"/>
+      <tableStyleElement type="firstColumn" dxfId="28"/>
+      <tableStyleElement type="lastColumn" dxfId="27"/>
+      <tableStyleElement type="firstRowStripe" dxfId="26"/>
+      <tableStyleElement type="secondRowStripe" dxfId="25"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="24"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="23"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -1958,8 +1849,8 @@
   </sheetPr>
   <dimension ref="A1:BP69"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A50" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A61" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="G61" sqref="G61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9622,11 +9513,21 @@
       <c r="B44" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="C44" s="17"/>
-      <c r="D44" s="17"/>
-      <c r="E44" s="18"/>
-      <c r="F44" s="19"/>
-      <c r="G44" s="20"/>
+      <c r="C44" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D44" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E44" s="18">
+        <v>1</v>
+      </c>
+      <c r="F44" s="19">
+        <v>44505</v>
+      </c>
+      <c r="G44" s="20">
+        <v>20</v>
+      </c>
       <c r="H44" s="15"/>
       <c r="I44" s="42"/>
       <c r="J44" s="22"/>
@@ -10664,12 +10565,14 @@
         <v>17</v>
       </c>
       <c r="E53" s="18">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="F53" s="19">
         <v>44513</v>
       </c>
-      <c r="G53" s="20"/>
+      <c r="G53" s="20">
+        <v>10</v>
+      </c>
       <c r="H53" s="15"/>
       <c r="I53" s="42" t="str">
         <f t="shared" ref="I53:BL53" ca="1" si="19">IF(AND($C58="Goal",I$7&gt;=$F58,I$7&lt;=$F58+$G58-1),2,IF(AND($C58="Milestone",I$7&gt;=$F58,I$7&lt;=$F58+$G58-1),1,""))</f>
@@ -10909,12 +10812,14 @@
         <v>17</v>
       </c>
       <c r="E54" s="18">
-        <v>0.1</v>
+        <v>1</v>
       </c>
       <c r="F54" s="19">
         <v>44513</v>
       </c>
-      <c r="G54" s="20"/>
+      <c r="G54" s="20">
+        <v>5</v>
+      </c>
       <c r="H54" s="15"/>
       <c r="I54" s="42" t="str">
         <f t="shared" ref="I54:BL54" ca="1" si="20">IF(AND($C59="Goal",I$7&gt;=$F59,I$7&lt;=$F59+$G59-1),2,IF(AND($C59="Milestone",I$7&gt;=$F59,I$7&lt;=$F59+$G59-1),1,""))</f>
@@ -11641,11 +11546,21 @@
       <c r="B57" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="C57" s="17"/>
-      <c r="D57" s="17"/>
-      <c r="E57" s="18"/>
-      <c r="F57" s="19"/>
-      <c r="G57" s="20"/>
+      <c r="C57" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D57" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E57" s="18">
+        <v>1</v>
+      </c>
+      <c r="F57" s="19">
+        <v>44530</v>
+      </c>
+      <c r="G57" s="20">
+        <v>3</v>
+      </c>
       <c r="H57" s="15"/>
       <c r="I57" s="42" t="str">
         <f t="shared" ref="I57:BL57" ca="1" si="23">IF(AND($C62="Goal",I$7&gt;=$F62,I$7&lt;=$F62+$G62-1),2,IF(AND($C62="Milestone",I$7&gt;=$F62,I$7&lt;=$F62+$G62-1),1,""))</f>
@@ -12372,11 +12287,21 @@
       <c r="B60" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="C60" s="17"/>
-      <c r="D60" s="17"/>
-      <c r="E60" s="18"/>
-      <c r="F60" s="19"/>
-      <c r="G60" s="20"/>
+      <c r="C60" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D60" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E60" s="18">
+        <v>1</v>
+      </c>
+      <c r="F60" s="19">
+        <v>44530</v>
+      </c>
+      <c r="G60" s="20">
+        <v>5</v>
+      </c>
       <c r="H60" s="15"/>
       <c r="I60" s="42" t="str">
         <f t="shared" ref="I60:BL60" ca="1" si="26">IF(AND($C65="Goal",I$7&gt;=$F65,I$7&lt;=$F65+$G65-1),2,IF(AND($C65="Milestone",I$7&gt;=$F65,I$7&lt;=$F65+$G65-1),1,""))</f>
@@ -12862,9 +12787,15 @@
       <c r="D62" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E62" s="18"/>
-      <c r="F62" s="19"/>
-      <c r="G62" s="20"/>
+      <c r="E62" s="18">
+        <v>1</v>
+      </c>
+      <c r="F62" s="19">
+        <v>44533</v>
+      </c>
+      <c r="G62" s="20">
+        <v>1</v>
+      </c>
       <c r="H62" s="15"/>
       <c r="I62" s="42" t="str">
         <f t="shared" ref="I62:BL62" ca="1" si="28">IF(AND($C67="Goal",I$7&gt;=$F67,I$7&lt;=$F67+$G67-1),2,IF(AND($C67="Milestone",I$7&gt;=$F67,I$7&lt;=$F67+$G67-1),1,""))</f>
@@ -13102,9 +13033,15 @@
       <c r="D63" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="E63" s="18"/>
-      <c r="F63" s="19"/>
-      <c r="G63" s="20"/>
+      <c r="E63" s="18">
+        <v>1</v>
+      </c>
+      <c r="F63" s="19">
+        <v>44533</v>
+      </c>
+      <c r="G63" s="20">
+        <v>1</v>
+      </c>
       <c r="H63" s="15"/>
       <c r="I63" s="42" t="str">
         <f t="shared" ref="I63:BL63" ca="1" si="29">IF(AND($C68="Goal",I$7&gt;=$F68,I$7&lt;=$F68+$G68-1),2,IF(AND($C68="Milestone",I$7&gt;=$F68,I$7&lt;=$F68+$G68-1),1,""))</f>
@@ -13342,9 +13279,15 @@
       <c r="D64" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E64" s="18"/>
-      <c r="F64" s="19"/>
-      <c r="G64" s="20"/>
+      <c r="E64" s="18">
+        <v>1</v>
+      </c>
+      <c r="F64" s="19">
+        <v>44531</v>
+      </c>
+      <c r="G64" s="20">
+        <v>1</v>
+      </c>
       <c r="H64" s="15"/>
       <c r="I64" s="42" t="str">
         <f t="shared" ref="I64:BL64" ca="1" si="30">IF(AND($C69="Goal",I$7&gt;=$F69,I$7&lt;=$F69+$G69-1),2,IF(AND($C69="Milestone",I$7&gt;=$F69,I$7&lt;=$F69+$G69-1),1,""))</f>
@@ -13582,9 +13525,15 @@
       <c r="D65" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="E65" s="18"/>
-      <c r="F65" s="19"/>
-      <c r="G65" s="20"/>
+      <c r="E65" s="18">
+        <v>1</v>
+      </c>
+      <c r="F65" s="19">
+        <v>44531</v>
+      </c>
+      <c r="G65" s="20">
+        <v>1</v>
+      </c>
       <c r="H65" s="15"/>
       <c r="I65" s="42" t="str">
         <f t="shared" ref="I65:BL65" ca="1" si="31">IF(AND($C70="Goal",I$7&gt;=$F70,I$7&lt;=$F70+$G70-1),2,IF(AND($C70="Milestone",I$7&gt;=$F70,I$7&lt;=$F70+$G70-1),1,""))</f>
@@ -14100,39 +14049,39 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I7:BL66">
-    <cfRule type="expression" dxfId="27" priority="1">
+    <cfRule type="expression" dxfId="22" priority="1">
       <formula>AND(TODAY()&gt;=I$7,TODAY()&lt;J$7)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:AM6">
-    <cfRule type="expression" dxfId="26" priority="4">
+    <cfRule type="expression" dxfId="21" priority="4">
       <formula>I$7&lt;=EOMONTH($I$7,0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J6:BL6">
-    <cfRule type="expression" dxfId="25" priority="3">
+    <cfRule type="expression" dxfId="20" priority="3">
       <formula>AND(J$7&lt;=EOMONTH($I$7,2),J$7&gt;EOMONTH($I$7,0),J$7&gt;EOMONTH($I$7,1))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I6:BL6">
-    <cfRule type="expression" dxfId="24" priority="2">
+    <cfRule type="expression" dxfId="19" priority="2">
       <formula>AND(I$7&lt;=EOMONTH($I$7,1),I$7&gt;EOMONTH($I$7,0))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10:BL45">
-    <cfRule type="expression" dxfId="23" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="7" stopIfTrue="1">
       <formula>AND($C10="Low Risk",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="22" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="8" stopIfTrue="1">
       <formula>AND($C10="High Risk",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="9" stopIfTrue="1">
       <formula>AND($C10="On Track",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="20" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="10" stopIfTrue="1">
       <formula>AND($C10="Med Risk",I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="19" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="11" stopIfTrue="1">
       <formula>AND(LEN($C10)=0,I$7&gt;=$F10,I$7&lt;=$F10+$G10-1)</formula>
     </cfRule>
   </conditionalFormatting>
@@ -14274,15 +14223,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="22a266b9fa9a230c5a512669d8b298c3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="eddc33fff6b14141ee5c74a0d29ea6a1" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -14558,6 +14498,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -14578,14 +14527,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39060724-9CA2-4290-8A0C-B53624A594E7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{75C87518-DD8E-42CD-8DAC-291A323E849B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -14606,6 +14547,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39060724-9CA2-4290-8A0C-B53624A594E7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA4BA2A8-DB97-40F9-8DB6-154C09C7467C}">
   <ds:schemaRefs>
